--- a/va_facility_data_2025-02-20/Fargo VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fargo%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fargo VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fargo%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R927b27067e764563b54f4ab4380de437"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R331dc41d77164bed8119905443c3ac70"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rdf61dcd514ef4603a0353c7871d51f7a"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rb0c19a5647db441eaf60cc91176b834c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R2b0d2445e79a4f7fac63a2fd2476a7df"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R672db54f468d4bdcbfbe400612d0fb0a"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rc96ea332b57e4422bf8a27e8a6f61785"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Raf5aa15eacc54756bfff30a828173277"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R2f3843e12c8b49f6a6aa78971bda855b"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rcf60b981985c44b28a3ebc09af4875b1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Reb6faaf4a06f47ce9100698b2e6024cd"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R09eb481359044ebb9938c4b02c838b32"/>
   </x:sheets>
 </x:workbook>
 </file>
